--- a/database/sidis/expdata/1011affinity01.xlsx
+++ b/database/sidis/expdata/1011affinity01.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="25">
   <si>
     <t>Ebeam</t>
   </si>
@@ -77,6 +77,18 @@
   </si>
   <si>
     <t>affinity</t>
+  </si>
+  <si>
+    <t>hermes</t>
+  </si>
+  <si>
+    <t>pi-</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>proton</t>
   </si>
 </sst>
 </file>
@@ -434,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U1"/>
+  <dimension ref="A1:U35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -505,6 +517,2216 @@
         <v>20</v>
       </c>
     </row>
+    <row r="2" spans="1:21">
+      <c r="A2">
+        <v>27.6</v>
+      </c>
+      <c r="B2">
+        <v>0.3707812028403872</v>
+      </c>
+      <c r="C2">
+        <v>2.87544</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2">
+        <v>218</v>
+      </c>
+      <c r="G2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2">
+        <v>0.2003783</v>
+      </c>
+      <c r="I2">
+        <v>0.002298494</v>
+      </c>
+      <c r="J2">
+        <v>0.00101316</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2">
+        <v>0.0356306</v>
+      </c>
+      <c r="N2">
+        <v>0.1522067</v>
+      </c>
+      <c r="O2">
+        <v>0.2</v>
+      </c>
+      <c r="P2">
+        <v>0.12</v>
+      </c>
+      <c r="Q2">
+        <v>0.364756219458475</v>
+      </c>
+      <c r="R2">
+        <v>0.8852618</v>
+      </c>
+      <c r="S2">
+        <v>1.1</v>
+      </c>
+      <c r="T2">
+        <v>0.8</v>
+      </c>
+      <c r="U2">
+        <v>0.3288999999999801</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
+      <c r="A3">
+        <v>27.6</v>
+      </c>
+      <c r="B3">
+        <v>0.3707812028403872</v>
+      </c>
+      <c r="C3">
+        <v>2.87544</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3">
+        <v>219</v>
+      </c>
+      <c r="G3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3">
+        <v>0.3000363</v>
+      </c>
+      <c r="I3">
+        <v>0.002535497</v>
+      </c>
+      <c r="J3">
+        <v>0.004517756</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3">
+        <v>0.04681215</v>
+      </c>
+      <c r="N3">
+        <v>0.1522067</v>
+      </c>
+      <c r="O3">
+        <v>0.2</v>
+      </c>
+      <c r="P3">
+        <v>0.12</v>
+      </c>
+      <c r="Q3">
+        <v>0.364756219458475</v>
+      </c>
+      <c r="R3">
+        <v>0.8810223</v>
+      </c>
+      <c r="S3">
+        <v>1.1</v>
+      </c>
+      <c r="T3">
+        <v>0.8</v>
+      </c>
+      <c r="U3">
+        <v>0.3318999999999798</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
+      <c r="A4">
+        <v>27.6</v>
+      </c>
+      <c r="B4">
+        <v>0.3332465261656717</v>
+      </c>
+      <c r="C4">
+        <v>5.24127</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4">
+        <v>259</v>
+      </c>
+      <c r="G4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4">
+        <v>0.1042764</v>
+      </c>
+      <c r="I4">
+        <v>0.008252815</v>
+      </c>
+      <c r="J4">
+        <v>0.006119656</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4">
+        <v>0.1212247</v>
+      </c>
+      <c r="N4">
+        <v>0.2538812</v>
+      </c>
+      <c r="O4">
+        <v>0.35</v>
+      </c>
+      <c r="P4">
+        <v>0.2</v>
+      </c>
+      <c r="Q4">
+        <v>0.398600791040684</v>
+      </c>
+      <c r="R4">
+        <v>0.5293345</v>
+      </c>
+      <c r="S4">
+        <v>0.6</v>
+      </c>
+      <c r="T4">
+        <v>0.475</v>
+      </c>
+      <c r="U4">
+        <v>0.3708999999999755</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
+      <c r="A5">
+        <v>27.6</v>
+      </c>
+      <c r="B5">
+        <v>0.3332465261656717</v>
+      </c>
+      <c r="C5">
+        <v>5.24127</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5">
+        <v>260</v>
+      </c>
+      <c r="G5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5">
+        <v>0.2015228</v>
+      </c>
+      <c r="I5">
+        <v>0.01507049</v>
+      </c>
+      <c r="J5">
+        <v>0.04585942</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5" t="s">
+        <v>24</v>
+      </c>
+      <c r="M5">
+        <v>0.2412393</v>
+      </c>
+      <c r="N5">
+        <v>0.2538812</v>
+      </c>
+      <c r="O5">
+        <v>0.35</v>
+      </c>
+      <c r="P5">
+        <v>0.2</v>
+      </c>
+      <c r="Q5">
+        <v>0.398600791040684</v>
+      </c>
+      <c r="R5">
+        <v>0.5300672</v>
+      </c>
+      <c r="S5">
+        <v>0.6</v>
+      </c>
+      <c r="T5">
+        <v>0.475</v>
+      </c>
+      <c r="U5">
+        <v>0.3947999999999728</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
+      <c r="A6">
+        <v>27.6</v>
+      </c>
+      <c r="B6">
+        <v>0.3332465261656717</v>
+      </c>
+      <c r="C6">
+        <v>5.24127</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6">
+        <v>261</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6">
+        <v>0.3015744</v>
+      </c>
+      <c r="I6">
+        <v>0.01830225</v>
+      </c>
+      <c r="J6">
+        <v>0.02795406</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6" t="s">
+        <v>24</v>
+      </c>
+      <c r="M6">
+        <v>0.3104361</v>
+      </c>
+      <c r="N6">
+        <v>0.2538812</v>
+      </c>
+      <c r="O6">
+        <v>0.35</v>
+      </c>
+      <c r="P6">
+        <v>0.2</v>
+      </c>
+      <c r="Q6">
+        <v>0.398600791040684</v>
+      </c>
+      <c r="R6">
+        <v>0.5291631</v>
+      </c>
+      <c r="S6">
+        <v>0.6</v>
+      </c>
+      <c r="T6">
+        <v>0.475</v>
+      </c>
+      <c r="U6">
+        <v>0.3372999999999792</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
+      <c r="A7">
+        <v>27.6</v>
+      </c>
+      <c r="B7">
+        <v>0.3332465261656717</v>
+      </c>
+      <c r="C7">
+        <v>5.24127</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7">
+        <v>266</v>
+      </c>
+      <c r="G7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7">
+        <v>0.1032566</v>
+      </c>
+      <c r="I7">
+        <v>0.004924235</v>
+      </c>
+      <c r="J7">
+        <v>0.003062262</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M7">
+        <v>0.05137324</v>
+      </c>
+      <c r="N7">
+        <v>0.2538812</v>
+      </c>
+      <c r="O7">
+        <v>0.35</v>
+      </c>
+      <c r="P7">
+        <v>0.2</v>
+      </c>
+      <c r="Q7">
+        <v>0.398600791040684</v>
+      </c>
+      <c r="R7">
+        <v>0.6857839</v>
+      </c>
+      <c r="S7">
+        <v>0.8</v>
+      </c>
+      <c r="T7">
+        <v>0.6</v>
+      </c>
+      <c r="U7">
+        <v>0.4787999999999636</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
+      <c r="A8">
+        <v>27.6</v>
+      </c>
+      <c r="B8">
+        <v>0.3332465261656717</v>
+      </c>
+      <c r="C8">
+        <v>5.24127</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8">
+        <v>267</v>
+      </c>
+      <c r="G8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8">
+        <v>0.2016946</v>
+      </c>
+      <c r="I8">
+        <v>0.009917063</v>
+      </c>
+      <c r="J8">
+        <v>0.02177295</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8" t="s">
+        <v>24</v>
+      </c>
+      <c r="M8">
+        <v>0.1324507</v>
+      </c>
+      <c r="N8">
+        <v>0.2538812</v>
+      </c>
+      <c r="O8">
+        <v>0.35</v>
+      </c>
+      <c r="P8">
+        <v>0.2</v>
+      </c>
+      <c r="Q8">
+        <v>0.398600791040684</v>
+      </c>
+      <c r="R8">
+        <v>0.6815989</v>
+      </c>
+      <c r="S8">
+        <v>0.8</v>
+      </c>
+      <c r="T8">
+        <v>0.6</v>
+      </c>
+      <c r="U8">
+        <v>0.5176999999999593</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
+      <c r="A9">
+        <v>27.6</v>
+      </c>
+      <c r="B9">
+        <v>0.3332465261656717</v>
+      </c>
+      <c r="C9">
+        <v>5.24127</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9">
+        <v>268</v>
+      </c>
+      <c r="G9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9">
+        <v>0.301104</v>
+      </c>
+      <c r="I9">
+        <v>0.01029933</v>
+      </c>
+      <c r="J9">
+        <v>0.0293566</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9">
+        <v>0.1106495</v>
+      </c>
+      <c r="N9">
+        <v>0.2538812</v>
+      </c>
+      <c r="O9">
+        <v>0.35</v>
+      </c>
+      <c r="P9">
+        <v>0.2</v>
+      </c>
+      <c r="Q9">
+        <v>0.398600791040684</v>
+      </c>
+      <c r="R9">
+        <v>0.6794035</v>
+      </c>
+      <c r="S9">
+        <v>0.8</v>
+      </c>
+      <c r="T9">
+        <v>0.6</v>
+      </c>
+      <c r="U9">
+        <v>0.5098999999999602</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
+      <c r="A10">
+        <v>27.6</v>
+      </c>
+      <c r="B10">
+        <v>0.3332465261656717</v>
+      </c>
+      <c r="C10">
+        <v>5.24127</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10">
+        <v>269</v>
+      </c>
+      <c r="G10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10">
+        <v>0.3975786</v>
+      </c>
+      <c r="I10">
+        <v>0.01071018</v>
+      </c>
+      <c r="J10">
+        <v>0.003610807</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10" t="s">
+        <v>24</v>
+      </c>
+      <c r="M10">
+        <v>0.1431822</v>
+      </c>
+      <c r="N10">
+        <v>0.2538812</v>
+      </c>
+      <c r="O10">
+        <v>0.35</v>
+      </c>
+      <c r="P10">
+        <v>0.2</v>
+      </c>
+      <c r="Q10">
+        <v>0.398600791040684</v>
+      </c>
+      <c r="R10">
+        <v>0.6854764</v>
+      </c>
+      <c r="S10">
+        <v>0.8</v>
+      </c>
+      <c r="T10">
+        <v>0.6</v>
+      </c>
+      <c r="U10">
+        <v>0.4631999999999653</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
+      <c r="A11">
+        <v>27.6</v>
+      </c>
+      <c r="B11">
+        <v>0.3332465261656717</v>
+      </c>
+      <c r="C11">
+        <v>5.24127</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11">
+        <v>270</v>
+      </c>
+      <c r="G11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11">
+        <v>0.5215886</v>
+      </c>
+      <c r="I11">
+        <v>0.007288295</v>
+      </c>
+      <c r="J11">
+        <v>0.002295339</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11" t="s">
+        <v>24</v>
+      </c>
+      <c r="M11">
+        <v>0.1210586</v>
+      </c>
+      <c r="N11">
+        <v>0.2538812</v>
+      </c>
+      <c r="O11">
+        <v>0.35</v>
+      </c>
+      <c r="P11">
+        <v>0.2</v>
+      </c>
+      <c r="Q11">
+        <v>0.398600791040684</v>
+      </c>
+      <c r="R11">
+        <v>0.6831758999999999</v>
+      </c>
+      <c r="S11">
+        <v>0.8</v>
+      </c>
+      <c r="T11">
+        <v>0.6</v>
+      </c>
+      <c r="U11">
+        <v>0.3220999999999808</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
+      <c r="A12">
+        <v>27.6</v>
+      </c>
+      <c r="B12">
+        <v>0.3332465261656717</v>
+      </c>
+      <c r="C12">
+        <v>5.24127</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12">
+        <v>273</v>
+      </c>
+      <c r="G12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12">
+        <v>0.09749774999999999</v>
+      </c>
+      <c r="I12">
+        <v>0.001758015</v>
+      </c>
+      <c r="J12">
+        <v>0.0006970667</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12" t="s">
+        <v>24</v>
+      </c>
+      <c r="M12">
+        <v>0.01257377</v>
+      </c>
+      <c r="N12">
+        <v>0.2538812</v>
+      </c>
+      <c r="O12">
+        <v>0.35</v>
+      </c>
+      <c r="P12">
+        <v>0.2</v>
+      </c>
+      <c r="Q12">
+        <v>0.398600791040684</v>
+      </c>
+      <c r="R12">
+        <v>0.8819489</v>
+      </c>
+      <c r="S12">
+        <v>1.1</v>
+      </c>
+      <c r="T12">
+        <v>0.8</v>
+      </c>
+      <c r="U12">
+        <v>0.593199999999951</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
+      <c r="A13">
+        <v>27.6</v>
+      </c>
+      <c r="B13">
+        <v>0.3332465261656717</v>
+      </c>
+      <c r="C13">
+        <v>5.24127</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13">
+        <v>274</v>
+      </c>
+      <c r="G13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13">
+        <v>0.2029234</v>
+      </c>
+      <c r="I13">
+        <v>0.003688457</v>
+      </c>
+      <c r="J13">
+        <v>0.004396694</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13" t="s">
+        <v>24</v>
+      </c>
+      <c r="M13">
+        <v>0.02672374</v>
+      </c>
+      <c r="N13">
+        <v>0.2538812</v>
+      </c>
+      <c r="O13">
+        <v>0.35</v>
+      </c>
+      <c r="P13">
+        <v>0.2</v>
+      </c>
+      <c r="Q13">
+        <v>0.398600791040684</v>
+      </c>
+      <c r="R13">
+        <v>0.8683476999999999</v>
+      </c>
+      <c r="S13">
+        <v>1.1</v>
+      </c>
+      <c r="T13">
+        <v>0.8</v>
+      </c>
+      <c r="U13">
+        <v>0.6414999999999457</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
+      <c r="A14">
+        <v>27.6</v>
+      </c>
+      <c r="B14">
+        <v>0.3332465261656717</v>
+      </c>
+      <c r="C14">
+        <v>5.24127</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14">
+        <v>275</v>
+      </c>
+      <c r="G14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14">
+        <v>0.3015589</v>
+      </c>
+      <c r="I14">
+        <v>0.004450328</v>
+      </c>
+      <c r="J14">
+        <v>0.00848138</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14" t="s">
+        <v>24</v>
+      </c>
+      <c r="M14">
+        <v>0.03188022</v>
+      </c>
+      <c r="N14">
+        <v>0.2538812</v>
+      </c>
+      <c r="O14">
+        <v>0.35</v>
+      </c>
+      <c r="P14">
+        <v>0.2</v>
+      </c>
+      <c r="Q14">
+        <v>0.398600791040684</v>
+      </c>
+      <c r="R14">
+        <v>0.8808116</v>
+      </c>
+      <c r="S14">
+        <v>1.1</v>
+      </c>
+      <c r="T14">
+        <v>0.8</v>
+      </c>
+      <c r="U14">
+        <v>0.6766999999999418</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
+      <c r="A15">
+        <v>27.6</v>
+      </c>
+      <c r="B15">
+        <v>0.3332465261656717</v>
+      </c>
+      <c r="C15">
+        <v>5.24127</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15">
+        <v>276</v>
+      </c>
+      <c r="G15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15">
+        <v>0.400271</v>
+      </c>
+      <c r="I15">
+        <v>0.00480503</v>
+      </c>
+      <c r="J15">
+        <v>0.0009415102</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15" t="s">
+        <v>24</v>
+      </c>
+      <c r="M15">
+        <v>0.03221355</v>
+      </c>
+      <c r="N15">
+        <v>0.2538812</v>
+      </c>
+      <c r="O15">
+        <v>0.35</v>
+      </c>
+      <c r="P15">
+        <v>0.2</v>
+      </c>
+      <c r="Q15">
+        <v>0.398600791040684</v>
+      </c>
+      <c r="R15">
+        <v>0.8768724</v>
+      </c>
+      <c r="S15">
+        <v>1.1</v>
+      </c>
+      <c r="T15">
+        <v>0.8</v>
+      </c>
+      <c r="U15">
+        <v>0.6539999999999443</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
+      <c r="A16">
+        <v>27.6</v>
+      </c>
+      <c r="B16">
+        <v>0.3332465261656717</v>
+      </c>
+      <c r="C16">
+        <v>5.24127</v>
+      </c>
+      <c r="D16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16">
+        <v>277</v>
+      </c>
+      <c r="G16" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16">
+        <v>0.5189948</v>
+      </c>
+      <c r="I16">
+        <v>0.002773092</v>
+      </c>
+      <c r="J16">
+        <v>0.0007111754</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16" t="s">
+        <v>24</v>
+      </c>
+      <c r="M16">
+        <v>0.02254459</v>
+      </c>
+      <c r="N16">
+        <v>0.2538812</v>
+      </c>
+      <c r="O16">
+        <v>0.35</v>
+      </c>
+      <c r="P16">
+        <v>0.2</v>
+      </c>
+      <c r="Q16">
+        <v>0.398600791040684</v>
+      </c>
+      <c r="R16">
+        <v>0.8681017</v>
+      </c>
+      <c r="S16">
+        <v>1.1</v>
+      </c>
+      <c r="T16">
+        <v>0.8</v>
+      </c>
+      <c r="U16">
+        <v>0.5724999999999533</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21">
+      <c r="A17">
+        <v>27.6</v>
+      </c>
+      <c r="B17">
+        <v>0.3332465261656717</v>
+      </c>
+      <c r="C17">
+        <v>5.24127</v>
+      </c>
+      <c r="D17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17">
+        <v>278</v>
+      </c>
+      <c r="G17" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17">
+        <v>0.6841322</v>
+      </c>
+      <c r="I17">
+        <v>0.00185091</v>
+      </c>
+      <c r="J17">
+        <v>0.0003169178</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17" t="s">
+        <v>24</v>
+      </c>
+      <c r="M17">
+        <v>0.01534929</v>
+      </c>
+      <c r="N17">
+        <v>0.2538812</v>
+      </c>
+      <c r="O17">
+        <v>0.35</v>
+      </c>
+      <c r="P17">
+        <v>0.2</v>
+      </c>
+      <c r="Q17">
+        <v>0.398600791040684</v>
+      </c>
+      <c r="R17">
+        <v>0.8610592</v>
+      </c>
+      <c r="S17">
+        <v>1.1</v>
+      </c>
+      <c r="T17">
+        <v>0.8</v>
+      </c>
+      <c r="U17">
+        <v>0.3855999999999739</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21">
+      <c r="A18">
+        <v>27.6</v>
+      </c>
+      <c r="B18">
+        <v>0.2043116043560035</v>
+      </c>
+      <c r="C18">
+        <v>9.213259000000001</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18">
+        <v>308</v>
+      </c>
+      <c r="G18" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18">
+        <v>0.1026678</v>
+      </c>
+      <c r="I18">
+        <v>0.04211745</v>
+      </c>
+      <c r="J18">
+        <v>0.01648419</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18" t="s">
+        <v>24</v>
+      </c>
+      <c r="M18">
+        <v>0.2497965</v>
+      </c>
+      <c r="N18">
+        <v>0.4100563</v>
+      </c>
+      <c r="O18">
+        <v>0.6</v>
+      </c>
+      <c r="P18">
+        <v>0.35</v>
+      </c>
+      <c r="Q18">
+        <v>0.433812395777442</v>
+      </c>
+      <c r="R18">
+        <v>0.419135</v>
+      </c>
+      <c r="S18">
+        <v>0.475</v>
+      </c>
+      <c r="T18">
+        <v>0.375</v>
+      </c>
+      <c r="U18">
+        <v>0.3462999999999782</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21">
+      <c r="A19">
+        <v>27.6</v>
+      </c>
+      <c r="B19">
+        <v>0.2043116043560035</v>
+      </c>
+      <c r="C19">
+        <v>9.213259000000001</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19">
+        <v>309</v>
+      </c>
+      <c r="G19" t="s">
+        <v>23</v>
+      </c>
+      <c r="H19">
+        <v>0.2034389</v>
+      </c>
+      <c r="I19">
+        <v>0.07725789</v>
+      </c>
+      <c r="J19">
+        <v>0.05992496</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19" t="s">
+        <v>24</v>
+      </c>
+      <c r="M19">
+        <v>0.5040272</v>
+      </c>
+      <c r="N19">
+        <v>0.4100563</v>
+      </c>
+      <c r="O19">
+        <v>0.6</v>
+      </c>
+      <c r="P19">
+        <v>0.35</v>
+      </c>
+      <c r="Q19">
+        <v>0.433812395777442</v>
+      </c>
+      <c r="R19">
+        <v>0.4213088</v>
+      </c>
+      <c r="S19">
+        <v>0.475</v>
+      </c>
+      <c r="T19">
+        <v>0.375</v>
+      </c>
+      <c r="U19">
+        <v>0.3544999999999773</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21">
+      <c r="A20">
+        <v>27.6</v>
+      </c>
+      <c r="B20">
+        <v>0.2043116043560035</v>
+      </c>
+      <c r="C20">
+        <v>9.213259000000001</v>
+      </c>
+      <c r="D20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F20">
+        <v>315</v>
+      </c>
+      <c r="G20" t="s">
+        <v>23</v>
+      </c>
+      <c r="H20">
+        <v>0.1010613</v>
+      </c>
+      <c r="I20">
+        <v>0.0261563</v>
+      </c>
+      <c r="J20">
+        <v>0.006495572</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20" t="s">
+        <v>24</v>
+      </c>
+      <c r="M20">
+        <v>0.1208953</v>
+      </c>
+      <c r="N20">
+        <v>0.4100563</v>
+      </c>
+      <c r="O20">
+        <v>0.6</v>
+      </c>
+      <c r="P20">
+        <v>0.35</v>
+      </c>
+      <c r="Q20">
+        <v>0.433812395777442</v>
+      </c>
+      <c r="R20">
+        <v>0.5229264</v>
+      </c>
+      <c r="S20">
+        <v>0.6</v>
+      </c>
+      <c r="T20">
+        <v>0.475</v>
+      </c>
+      <c r="U20">
+        <v>0.4276999999999692</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21">
+      <c r="A21">
+        <v>27.6</v>
+      </c>
+      <c r="B21">
+        <v>0.204363907601137</v>
+      </c>
+      <c r="C21">
+        <v>9.21275</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21">
+        <v>316</v>
+      </c>
+      <c r="G21" t="s">
+        <v>23</v>
+      </c>
+      <c r="H21">
+        <v>0.2004928</v>
+      </c>
+      <c r="I21">
+        <v>0.05447709</v>
+      </c>
+      <c r="J21">
+        <v>0.04900314</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21" t="s">
+        <v>24</v>
+      </c>
+      <c r="M21">
+        <v>0.2579484</v>
+      </c>
+      <c r="N21">
+        <v>0.409992</v>
+      </c>
+      <c r="O21">
+        <v>0.6</v>
+      </c>
+      <c r="P21">
+        <v>0.35</v>
+      </c>
+      <c r="Q21">
+        <v>0.433856461225069</v>
+      </c>
+      <c r="R21">
+        <v>0.5290723000000001</v>
+      </c>
+      <c r="S21">
+        <v>0.6</v>
+      </c>
+      <c r="T21">
+        <v>0.475</v>
+      </c>
+      <c r="U21">
+        <v>0.4442999999999674</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21">
+      <c r="A22">
+        <v>27.6</v>
+      </c>
+      <c r="B22">
+        <v>0.2043116043560035</v>
+      </c>
+      <c r="C22">
+        <v>9.213259000000001</v>
+      </c>
+      <c r="D22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22">
+        <v>317</v>
+      </c>
+      <c r="G22" t="s">
+        <v>23</v>
+      </c>
+      <c r="H22">
+        <v>0.3027576</v>
+      </c>
+      <c r="I22">
+        <v>0.06368482</v>
+      </c>
+      <c r="J22">
+        <v>0.0269338</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22" t="s">
+        <v>24</v>
+      </c>
+      <c r="M22">
+        <v>0.2974144</v>
+      </c>
+      <c r="N22">
+        <v>0.4100563</v>
+      </c>
+      <c r="O22">
+        <v>0.6</v>
+      </c>
+      <c r="P22">
+        <v>0.35</v>
+      </c>
+      <c r="Q22">
+        <v>0.433812395777442</v>
+      </c>
+      <c r="R22">
+        <v>0.5312233</v>
+      </c>
+      <c r="S22">
+        <v>0.6</v>
+      </c>
+      <c r="T22">
+        <v>0.475</v>
+      </c>
+      <c r="U22">
+        <v>0.4285999999999691</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21">
+      <c r="A23">
+        <v>27.6</v>
+      </c>
+      <c r="B23">
+        <v>0.2043116043560035</v>
+      </c>
+      <c r="C23">
+        <v>9.213259000000001</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" t="s">
+        <v>22</v>
+      </c>
+      <c r="F23">
+        <v>318</v>
+      </c>
+      <c r="G23" t="s">
+        <v>23</v>
+      </c>
+      <c r="H23">
+        <v>0.4021577</v>
+      </c>
+      <c r="I23">
+        <v>0.07246015</v>
+      </c>
+      <c r="J23">
+        <v>0.02826555</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23" t="s">
+        <v>24</v>
+      </c>
+      <c r="M23">
+        <v>0.4214392</v>
+      </c>
+      <c r="N23">
+        <v>0.4100563</v>
+      </c>
+      <c r="O23">
+        <v>0.6</v>
+      </c>
+      <c r="P23">
+        <v>0.35</v>
+      </c>
+      <c r="Q23">
+        <v>0.433812395777442</v>
+      </c>
+      <c r="R23">
+        <v>0.5247763</v>
+      </c>
+      <c r="S23">
+        <v>0.6</v>
+      </c>
+      <c r="T23">
+        <v>0.475</v>
+      </c>
+      <c r="U23">
+        <v>0.3508999999999777</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21">
+      <c r="A24">
+        <v>27.6</v>
+      </c>
+      <c r="B24">
+        <v>0.204363907601137</v>
+      </c>
+      <c r="C24">
+        <v>9.21275</v>
+      </c>
+      <c r="D24" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24">
+        <v>322</v>
+      </c>
+      <c r="G24" t="s">
+        <v>23</v>
+      </c>
+      <c r="H24">
+        <v>0.1001661</v>
+      </c>
+      <c r="I24">
+        <v>0.0133195</v>
+      </c>
+      <c r="J24">
+        <v>0.001538787</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24" t="s">
+        <v>24</v>
+      </c>
+      <c r="M24">
+        <v>0.02698424</v>
+      </c>
+      <c r="N24">
+        <v>0.409992</v>
+      </c>
+      <c r="O24">
+        <v>0.6</v>
+      </c>
+      <c r="P24">
+        <v>0.35</v>
+      </c>
+      <c r="Q24">
+        <v>0.433856461225069</v>
+      </c>
+      <c r="R24">
+        <v>0.6822067000000001</v>
+      </c>
+      <c r="S24">
+        <v>0.8</v>
+      </c>
+      <c r="T24">
+        <v>0.6</v>
+      </c>
+      <c r="U24">
+        <v>0.5398999999999569</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21">
+      <c r="A25">
+        <v>27.6</v>
+      </c>
+      <c r="B25">
+        <v>0.2043116043560035</v>
+      </c>
+      <c r="C25">
+        <v>9.213259000000001</v>
+      </c>
+      <c r="D25" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25">
+        <v>323</v>
+      </c>
+      <c r="G25" t="s">
+        <v>23</v>
+      </c>
+      <c r="H25">
+        <v>0.1942865</v>
+      </c>
+      <c r="I25">
+        <v>0.027762</v>
+      </c>
+      <c r="J25">
+        <v>0.01599647</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25" t="s">
+        <v>24</v>
+      </c>
+      <c r="M25">
+        <v>0.09706699000000001</v>
+      </c>
+      <c r="N25">
+        <v>0.4100563</v>
+      </c>
+      <c r="O25">
+        <v>0.6</v>
+      </c>
+      <c r="P25">
+        <v>0.35</v>
+      </c>
+      <c r="Q25">
+        <v>0.433812395777442</v>
+      </c>
+      <c r="R25">
+        <v>0.6621433</v>
+      </c>
+      <c r="S25">
+        <v>0.8</v>
+      </c>
+      <c r="T25">
+        <v>0.6</v>
+      </c>
+      <c r="U25">
+        <v>0.5640999999999542</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21">
+      <c r="A26">
+        <v>27.6</v>
+      </c>
+      <c r="B26">
+        <v>0.2043116043560035</v>
+      </c>
+      <c r="C26">
+        <v>9.213259000000001</v>
+      </c>
+      <c r="D26" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" t="s">
+        <v>22</v>
+      </c>
+      <c r="F26">
+        <v>324</v>
+      </c>
+      <c r="G26" t="s">
+        <v>23</v>
+      </c>
+      <c r="H26">
+        <v>0.2960212</v>
+      </c>
+      <c r="I26">
+        <v>0.03232303</v>
+      </c>
+      <c r="J26">
+        <v>0.02367193</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26" t="s">
+        <v>24</v>
+      </c>
+      <c r="M26">
+        <v>0.08910626000000001</v>
+      </c>
+      <c r="N26">
+        <v>0.4100563</v>
+      </c>
+      <c r="O26">
+        <v>0.6</v>
+      </c>
+      <c r="P26">
+        <v>0.35</v>
+      </c>
+      <c r="Q26">
+        <v>0.433812395777442</v>
+      </c>
+      <c r="R26">
+        <v>0.6844238</v>
+      </c>
+      <c r="S26">
+        <v>0.8</v>
+      </c>
+      <c r="T26">
+        <v>0.6</v>
+      </c>
+      <c r="U26">
+        <v>0.575099999999953</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21">
+      <c r="A27">
+        <v>27.6</v>
+      </c>
+      <c r="B27">
+        <v>0.2042386273318655</v>
+      </c>
+      <c r="C27">
+        <v>9.218045</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27" t="s">
+        <v>22</v>
+      </c>
+      <c r="F27">
+        <v>325</v>
+      </c>
+      <c r="G27" t="s">
+        <v>23</v>
+      </c>
+      <c r="H27">
+        <v>0.4023158</v>
+      </c>
+      <c r="I27">
+        <v>0.05082641</v>
+      </c>
+      <c r="J27">
+        <v>0.02575174</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27" t="s">
+        <v>24</v>
+      </c>
+      <c r="M27">
+        <v>0.1971045</v>
+      </c>
+      <c r="N27">
+        <v>0.4101289</v>
+      </c>
+      <c r="O27">
+        <v>0.6</v>
+      </c>
+      <c r="P27">
+        <v>0.35</v>
+      </c>
+      <c r="Q27">
+        <v>0.433960915469109</v>
+      </c>
+      <c r="R27">
+        <v>0.6802062</v>
+      </c>
+      <c r="S27">
+        <v>0.8</v>
+      </c>
+      <c r="T27">
+        <v>0.6</v>
+      </c>
+      <c r="U27">
+        <v>0.538199999999957</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21">
+      <c r="A28">
+        <v>27.6</v>
+      </c>
+      <c r="B28">
+        <v>0.2043116043560035</v>
+      </c>
+      <c r="C28">
+        <v>9.213259000000001</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28" t="s">
+        <v>22</v>
+      </c>
+      <c r="F28">
+        <v>326</v>
+      </c>
+      <c r="G28" t="s">
+        <v>23</v>
+      </c>
+      <c r="H28">
+        <v>0.5266542</v>
+      </c>
+      <c r="I28">
+        <v>0.02711792</v>
+      </c>
+      <c r="J28">
+        <v>0.004785834</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28" t="s">
+        <v>24</v>
+      </c>
+      <c r="M28">
+        <v>0.160127</v>
+      </c>
+      <c r="N28">
+        <v>0.4100563</v>
+      </c>
+      <c r="O28">
+        <v>0.6</v>
+      </c>
+      <c r="P28">
+        <v>0.35</v>
+      </c>
+      <c r="Q28">
+        <v>0.433812395777442</v>
+      </c>
+      <c r="R28">
+        <v>0.6888424</v>
+      </c>
+      <c r="S28">
+        <v>0.8</v>
+      </c>
+      <c r="T28">
+        <v>0.6</v>
+      </c>
+      <c r="U28">
+        <v>0.4667999999999649</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21">
+      <c r="A29">
+        <v>27.6</v>
+      </c>
+      <c r="B29">
+        <v>0.204363907601137</v>
+      </c>
+      <c r="C29">
+        <v>9.21275</v>
+      </c>
+      <c r="D29" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29" t="s">
+        <v>22</v>
+      </c>
+      <c r="F29">
+        <v>329</v>
+      </c>
+      <c r="G29" t="s">
+        <v>23</v>
+      </c>
+      <c r="H29">
+        <v>0.1150891</v>
+      </c>
+      <c r="I29">
+        <v>0.005036646</v>
+      </c>
+      <c r="J29">
+        <v>0.0003982</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29" t="s">
+        <v>24</v>
+      </c>
+      <c r="M29">
+        <v>0.006906029</v>
+      </c>
+      <c r="N29">
+        <v>0.409992</v>
+      </c>
+      <c r="O29">
+        <v>0.6</v>
+      </c>
+      <c r="P29">
+        <v>0.35</v>
+      </c>
+      <c r="Q29">
+        <v>0.433856461225069</v>
+      </c>
+      <c r="R29">
+        <v>0.8666466</v>
+      </c>
+      <c r="S29">
+        <v>1.1</v>
+      </c>
+      <c r="T29">
+        <v>0.8</v>
+      </c>
+      <c r="U29">
+        <v>0.6864999999999407</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21">
+      <c r="A30">
+        <v>27.6</v>
+      </c>
+      <c r="B30">
+        <v>0.204363907601137</v>
+      </c>
+      <c r="C30">
+        <v>9.21275</v>
+      </c>
+      <c r="D30" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30" t="s">
+        <v>22</v>
+      </c>
+      <c r="F30">
+        <v>330</v>
+      </c>
+      <c r="G30" t="s">
+        <v>23</v>
+      </c>
+      <c r="H30">
+        <v>0.2061022</v>
+      </c>
+      <c r="I30">
+        <v>0.01197475</v>
+      </c>
+      <c r="J30">
+        <v>0.001894898</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30" t="s">
+        <v>24</v>
+      </c>
+      <c r="M30">
+        <v>0.01148115</v>
+      </c>
+      <c r="N30">
+        <v>0.409992</v>
+      </c>
+      <c r="O30">
+        <v>0.6</v>
+      </c>
+      <c r="P30">
+        <v>0.35</v>
+      </c>
+      <c r="Q30">
+        <v>0.433856461225069</v>
+      </c>
+      <c r="R30">
+        <v>0.883724</v>
+      </c>
+      <c r="S30">
+        <v>1.1</v>
+      </c>
+      <c r="T30">
+        <v>0.8</v>
+      </c>
+      <c r="U30">
+        <v>0.7370999999999351</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21">
+      <c r="A31">
+        <v>27.6</v>
+      </c>
+      <c r="B31">
+        <v>0.2043116043560035</v>
+      </c>
+      <c r="C31">
+        <v>9.213259000000001</v>
+      </c>
+      <c r="D31" t="s">
+        <v>21</v>
+      </c>
+      <c r="E31" t="s">
+        <v>22</v>
+      </c>
+      <c r="F31">
+        <v>331</v>
+      </c>
+      <c r="G31" t="s">
+        <v>23</v>
+      </c>
+      <c r="H31">
+        <v>0.3094652</v>
+      </c>
+      <c r="I31">
+        <v>0.01599214</v>
+      </c>
+      <c r="J31">
+        <v>0.01192284</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31" t="s">
+        <v>24</v>
+      </c>
+      <c r="M31">
+        <v>0.04485106</v>
+      </c>
+      <c r="N31">
+        <v>0.4100563</v>
+      </c>
+      <c r="O31">
+        <v>0.6</v>
+      </c>
+      <c r="P31">
+        <v>0.35</v>
+      </c>
+      <c r="Q31">
+        <v>0.433812395777442</v>
+      </c>
+      <c r="R31">
+        <v>0.870857</v>
+      </c>
+      <c r="S31">
+        <v>1.1</v>
+      </c>
+      <c r="T31">
+        <v>0.8</v>
+      </c>
+      <c r="U31">
+        <v>0.7446999999999343</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21">
+      <c r="A32">
+        <v>27.6</v>
+      </c>
+      <c r="B32">
+        <v>0.204306644502568</v>
+      </c>
+      <c r="C32">
+        <v>9.208596</v>
+      </c>
+      <c r="D32" t="s">
+        <v>21</v>
+      </c>
+      <c r="E32" t="s">
+        <v>22</v>
+      </c>
+      <c r="F32">
+        <v>332</v>
+      </c>
+      <c r="G32" t="s">
+        <v>23</v>
+      </c>
+      <c r="H32">
+        <v>0.4040579</v>
+      </c>
+      <c r="I32">
+        <v>0.02226679</v>
+      </c>
+      <c r="J32">
+        <v>0.004331644</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32" t="s">
+        <v>24</v>
+      </c>
+      <c r="M32">
+        <v>0.03307767</v>
+      </c>
+      <c r="N32">
+        <v>0.4100822</v>
+      </c>
+      <c r="O32">
+        <v>0.6</v>
+      </c>
+      <c r="P32">
+        <v>0.35</v>
+      </c>
+      <c r="Q32">
+        <v>0.433565450450929</v>
+      </c>
+      <c r="R32">
+        <v>0.881968</v>
+      </c>
+      <c r="S32">
+        <v>1.1</v>
+      </c>
+      <c r="T32">
+        <v>0.8</v>
+      </c>
+      <c r="U32">
+        <v>0.7463999999999341</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21">
+      <c r="A33">
+        <v>27.6</v>
+      </c>
+      <c r="B33">
+        <v>0.204363907601137</v>
+      </c>
+      <c r="C33">
+        <v>9.21275</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33" t="s">
+        <v>22</v>
+      </c>
+      <c r="F33">
+        <v>333</v>
+      </c>
+      <c r="G33" t="s">
+        <v>23</v>
+      </c>
+      <c r="H33">
+        <v>0.5178942</v>
+      </c>
+      <c r="I33">
+        <v>0.01105788</v>
+      </c>
+      <c r="J33">
+        <v>0.001350609</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33" t="s">
+        <v>24</v>
+      </c>
+      <c r="M33">
+        <v>0.03803049</v>
+      </c>
+      <c r="N33">
+        <v>0.409992</v>
+      </c>
+      <c r="O33">
+        <v>0.6</v>
+      </c>
+      <c r="P33">
+        <v>0.35</v>
+      </c>
+      <c r="Q33">
+        <v>0.433856461225069</v>
+      </c>
+      <c r="R33">
+        <v>0.8590401</v>
+      </c>
+      <c r="S33">
+        <v>1.1</v>
+      </c>
+      <c r="T33">
+        <v>0.8</v>
+      </c>
+      <c r="U33">
+        <v>0.6803999999999414</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21">
+      <c r="A34">
+        <v>27.6</v>
+      </c>
+      <c r="B34">
+        <v>0.204306644502568</v>
+      </c>
+      <c r="C34">
+        <v>9.208596</v>
+      </c>
+      <c r="D34" t="s">
+        <v>21</v>
+      </c>
+      <c r="E34" t="s">
+        <v>22</v>
+      </c>
+      <c r="F34">
+        <v>334</v>
+      </c>
+      <c r="G34" t="s">
+        <v>23</v>
+      </c>
+      <c r="H34">
+        <v>0.6961856</v>
+      </c>
+      <c r="I34">
+        <v>0.008026297999999999</v>
+      </c>
+      <c r="J34">
+        <v>0.0004726495</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34" t="s">
+        <v>24</v>
+      </c>
+      <c r="M34">
+        <v>0.01455982</v>
+      </c>
+      <c r="N34">
+        <v>0.4100822</v>
+      </c>
+      <c r="O34">
+        <v>0.6</v>
+      </c>
+      <c r="P34">
+        <v>0.35</v>
+      </c>
+      <c r="Q34">
+        <v>0.433565450450929</v>
+      </c>
+      <c r="R34">
+        <v>0.8481316</v>
+      </c>
+      <c r="S34">
+        <v>1.1</v>
+      </c>
+      <c r="T34">
+        <v>0.8</v>
+      </c>
+      <c r="U34">
+        <v>0.529399999999958</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21">
+      <c r="A35">
+        <v>27.6</v>
+      </c>
+      <c r="B35">
+        <v>0.2043116043560035</v>
+      </c>
+      <c r="C35">
+        <v>9.213259000000001</v>
+      </c>
+      <c r="D35" t="s">
+        <v>21</v>
+      </c>
+      <c r="E35" t="s">
+        <v>22</v>
+      </c>
+      <c r="F35">
+        <v>335</v>
+      </c>
+      <c r="G35" t="s">
+        <v>23</v>
+      </c>
+      <c r="H35">
+        <v>0.8773544</v>
+      </c>
+      <c r="I35">
+        <v>0.001971646</v>
+      </c>
+      <c r="J35">
+        <v>0.000598943</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35" t="s">
+        <v>24</v>
+      </c>
+      <c r="M35">
+        <v>0.004026628</v>
+      </c>
+      <c r="N35">
+        <v>0.4100563</v>
+      </c>
+      <c r="O35">
+        <v>0.6</v>
+      </c>
+      <c r="P35">
+        <v>0.35</v>
+      </c>
+      <c r="Q35">
+        <v>0.433812395777442</v>
+      </c>
+      <c r="R35">
+        <v>0.8545865</v>
+      </c>
+      <c r="S35">
+        <v>1.1</v>
+      </c>
+      <c r="T35">
+        <v>0.8</v>
+      </c>
+      <c r="U35">
+        <v>0.3306999999999799</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
